--- a/artfynd/Björnideforsen A artfynd.xlsx
+++ b/artfynd/Björnideforsen A artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>118686319</v>
+        <v>118506678</v>
       </c>
       <c r="B2" t="n">
-        <v>96807</v>
+        <v>90749</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,45 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>221941</v>
+        <v>65</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>695205</v>
+        <v>695114</v>
       </c>
       <c r="R2" t="n">
-        <v>7326106</v>
+        <v>7326371</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -750,12 +757,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -764,32 +771,29 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
-        </is>
-      </c>
-      <c r="AY2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>118683560</v>
+        <v>118686332</v>
       </c>
       <c r="B3" t="n">
-        <v>78221</v>
+        <v>78566</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -802,40 +806,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>228912</v>
+        <v>864</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>695444</v>
+        <v>695096</v>
       </c>
       <c r="R3" t="n">
-        <v>7325887</v>
+        <v>7326161</v>
       </c>
       <c r="S3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -873,19 +874,18 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
@@ -896,10 +896,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>118682158</v>
+        <v>118686324</v>
       </c>
       <c r="B4" t="n">
-        <v>91779</v>
+        <v>91771</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -908,45 +908,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>695192</v>
+        <v>695164</v>
       </c>
       <c r="R4" t="n">
-        <v>7326140</v>
+        <v>7326296</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -987,19 +980,18 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
@@ -1010,10 +1002,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>118678802</v>
+        <v>118678707</v>
       </c>
       <c r="B5" t="n">
-        <v>91779</v>
+        <v>77416</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1022,25 +1014,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4364</v>
+        <v>6487</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1050,10 +1042,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>695131</v>
+        <v>695385</v>
       </c>
       <c r="R5" t="n">
-        <v>7326326</v>
+        <v>7325900</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1105,7 +1097,7 @@
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr">
@@ -1116,10 +1108,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>118678801</v>
+        <v>118679392</v>
       </c>
       <c r="B6" t="n">
-        <v>91779</v>
+        <v>90654</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1128,38 +1120,45 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4364</v>
+        <v>1503</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>695077</v>
+        <v>695058</v>
       </c>
       <c r="R6" t="n">
-        <v>7325858</v>
+        <v>7325835</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1200,18 +1199,19 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr">
@@ -1222,10 +1222,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>118686307</v>
+        <v>118686322</v>
       </c>
       <c r="B7" t="n">
-        <v>91783</v>
+        <v>96807</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1234,25 +1234,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4365</v>
+        <v>221941</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>695093</v>
+        <v>695088</v>
       </c>
       <c r="R7" t="n">
-        <v>7326359</v>
+        <v>7326290</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1328,10 +1328,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>118686357</v>
+        <v>118686340</v>
       </c>
       <c r="B8" t="n">
-        <v>77868</v>
+        <v>77416</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1344,21 +1344,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6437</v>
+        <v>6487</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1368,10 +1368,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>695484</v>
+        <v>695468</v>
       </c>
       <c r="R8" t="n">
-        <v>7325908</v>
+        <v>7325842</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1434,10 +1434,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>118678697</v>
+        <v>118686351</v>
       </c>
       <c r="B9" t="n">
-        <v>78221</v>
+        <v>79600</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1446,25 +1446,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>228912</v>
+        <v>6463</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1474,10 +1474,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>695389</v>
+        <v>695428</v>
       </c>
       <c r="R9" t="n">
-        <v>7325934</v>
+        <v>7325970</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1512,6 +1512,11 @@
           <t>2024-07-25</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>På En</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1524,12 +1529,12 @@
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
@@ -1540,10 +1545,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>118683462</v>
+        <v>118678799</v>
       </c>
       <c r="B10" t="n">
-        <v>78129</v>
+        <v>89906</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1552,44 +1557,41 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>353</v>
+        <v>5685</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>695068</v>
+        <v>695426</v>
       </c>
       <c r="R10" t="n">
-        <v>7326202</v>
+        <v>7325813</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1627,19 +1629,18 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX10" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY10" t="inlineStr">
@@ -1650,10 +1651,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>118678703</v>
+        <v>118680238</v>
       </c>
       <c r="B11" t="n">
-        <v>90749</v>
+        <v>90469</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1662,38 +1663,45 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>65</v>
+        <v>5447</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>695179</v>
+        <v>695211</v>
       </c>
       <c r="R11" t="n">
-        <v>7325774</v>
+        <v>7325729</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1740,12 +1748,12 @@
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX11" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY11" t="inlineStr">
@@ -1756,7 +1764,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>118678564</v>
+        <v>118680083</v>
       </c>
       <c r="B12" t="n">
         <v>91779</v>
@@ -1790,19 +1798,26 @@
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>695003</v>
+        <v>695189</v>
       </c>
       <c r="R12" t="n">
-        <v>7325994</v>
+        <v>7325769</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1846,22 +1861,26 @@
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX12" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
-        </is>
-      </c>
-      <c r="AY12" t="inlineStr"/>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>118678569</v>
+        <v>118686353</v>
       </c>
       <c r="B13" t="n">
-        <v>91779</v>
+        <v>91773</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1870,25 +1889,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4364</v>
+        <v>4362</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1898,13 +1917,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>695092</v>
+        <v>695301</v>
       </c>
       <c r="R13" t="n">
-        <v>7326283</v>
+        <v>7326044</v>
       </c>
       <c r="S13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -1942,28 +1961,33 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
-        </is>
-      </c>
-      <c r="AY13" t="inlineStr"/>
+          <t>Petra Wikström</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>118686308</v>
+        <v>118678555</v>
       </c>
       <c r="B14" t="n">
-        <v>91783</v>
+        <v>78220</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1972,25 +1996,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4365</v>
+        <v>6446</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2000,13 +2024,13 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>695070</v>
+        <v>695027</v>
       </c>
       <c r="R14" t="n">
-        <v>7326235</v>
+        <v>7325837</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2044,33 +2068,28 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Petya Valcheva</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
-        </is>
-      </c>
-      <c r="AY14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Petya Valcheva</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>118678707</v>
+        <v>118678698</v>
       </c>
       <c r="B15" t="n">
-        <v>77416</v>
+        <v>78221</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2083,21 +2102,21 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6487</v>
+        <v>228912</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2107,10 +2126,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>695385</v>
+        <v>695296</v>
       </c>
       <c r="R15" t="n">
-        <v>7325900</v>
+        <v>7326118</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2173,10 +2192,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>118678557</v>
+        <v>118686321</v>
       </c>
       <c r="B16" t="n">
-        <v>90654</v>
+        <v>96807</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2185,25 +2204,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1503</v>
+        <v>221941</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2213,13 +2232,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>695306</v>
+        <v>695142</v>
       </c>
       <c r="R16" t="n">
-        <v>7325712</v>
+        <v>7326163</v>
       </c>
       <c r="S16" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2263,19 +2282,23 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX16" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
-        </is>
-      </c>
-      <c r="AY16" t="inlineStr"/>
+          <t>Petra Wikström</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>118680083</v>
+        <v>118678565</v>
       </c>
       <c r="B17" t="n">
         <v>91779</v>
@@ -2309,26 +2332,19 @@
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>695189</v>
+        <v>695445</v>
       </c>
       <c r="R17" t="n">
-        <v>7325769</v>
+        <v>7325726</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2372,26 +2388,22 @@
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petya Valcheva</t>
         </is>
       </c>
       <c r="AX17" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
-        </is>
-      </c>
-      <c r="AY17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Petya Valcheva</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>118682130</v>
+        <v>118681907</v>
       </c>
       <c r="B18" t="n">
-        <v>91779</v>
+        <v>91771</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2400,25 +2412,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2435,10 +2447,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>695141</v>
+        <v>695416</v>
       </c>
       <c r="R18" t="n">
-        <v>7326162</v>
+        <v>7325784</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2502,10 +2514,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>118686355</v>
+        <v>118682495</v>
       </c>
       <c r="B19" t="n">
-        <v>77868</v>
+        <v>91783</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2514,38 +2526,45 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6437</v>
+        <v>4365</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>695377</v>
+        <v>695109</v>
       </c>
       <c r="R19" t="n">
-        <v>7326043</v>
+        <v>7326361</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2586,18 +2605,19 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr">
@@ -2608,10 +2628,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>118686331</v>
+        <v>118678693</v>
       </c>
       <c r="B20" t="n">
-        <v>78220</v>
+        <v>79102</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2624,21 +2644,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6446</v>
+        <v>6453</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2648,10 +2668,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>695087</v>
+        <v>695052</v>
       </c>
       <c r="R20" t="n">
-        <v>7326209</v>
+        <v>7326181</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2698,12 +2718,12 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr">
@@ -2714,10 +2734,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>118686295</v>
+        <v>118680221</v>
       </c>
       <c r="B21" t="n">
-        <v>79102</v>
+        <v>90654</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2726,38 +2746,45 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6453</v>
+        <v>1503</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>695186</v>
+        <v>695211</v>
       </c>
       <c r="R21" t="n">
-        <v>7326127</v>
+        <v>7325729</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2804,12 +2831,12 @@
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr">
@@ -2820,10 +2847,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>118686290</v>
+        <v>118678699</v>
       </c>
       <c r="B22" t="n">
-        <v>79102</v>
+        <v>78221</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2836,21 +2863,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6453</v>
+        <v>228912</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2860,10 +2887,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>695074</v>
+        <v>695048</v>
       </c>
       <c r="R22" t="n">
-        <v>7326206</v>
+        <v>7326248</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2910,12 +2937,12 @@
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AY22" t="inlineStr">
@@ -2926,10 +2953,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>118686299</v>
+        <v>118686289</v>
       </c>
       <c r="B23" t="n">
-        <v>79073</v>
+        <v>74596</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2942,21 +2969,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>229821</v>
+        <v>6440</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -2966,10 +2993,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>695484</v>
+        <v>695423</v>
       </c>
       <c r="R23" t="n">
-        <v>7325908</v>
+        <v>7325966</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3032,10 +3059,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>118686313</v>
+        <v>118678567</v>
       </c>
       <c r="B24" t="n">
-        <v>96807</v>
+        <v>91779</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3048,21 +3075,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>221941</v>
+        <v>4364</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3072,13 +3099,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>695388</v>
+        <v>695345</v>
       </c>
       <c r="R24" t="n">
-        <v>7326028</v>
+        <v>7326063</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3122,26 +3149,22 @@
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Petya Valcheva</t>
         </is>
       </c>
       <c r="AX24" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
-        </is>
-      </c>
-      <c r="AY24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Petya Valcheva</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>118678696</v>
+        <v>118678562</v>
       </c>
       <c r="B25" t="n">
-        <v>96807</v>
+        <v>91779</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3154,21 +3177,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>221941</v>
+        <v>4364</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3178,13 +3201,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>695508</v>
+        <v>695066</v>
       </c>
       <c r="R25" t="n">
-        <v>7325751</v>
+        <v>7326141</v>
       </c>
       <c r="S25" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3228,26 +3251,22 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Petya Valcheva</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
-        </is>
-      </c>
-      <c r="AY25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Petya Valcheva</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>118686321</v>
+        <v>118683462</v>
       </c>
       <c r="B26" t="n">
-        <v>96807</v>
+        <v>78129</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3256,41 +3275,44 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>221941</v>
+        <v>353</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>695142</v>
+        <v>695068</v>
       </c>
       <c r="R26" t="n">
-        <v>7326163</v>
+        <v>7326202</v>
       </c>
       <c r="S26" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3328,18 +3350,19 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY26" t="inlineStr">
@@ -3350,10 +3373,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>118682065</v>
+        <v>118678709</v>
       </c>
       <c r="B27" t="n">
-        <v>90749</v>
+        <v>77416</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3362,45 +3385,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>65</v>
+        <v>6487</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>695416</v>
+        <v>695099</v>
       </c>
       <c r="R27" t="n">
-        <v>7325887</v>
+        <v>7326156</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3441,19 +3457,18 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AY27" t="inlineStr">
@@ -3464,7 +3479,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>118686347</v>
+        <v>118686349</v>
       </c>
       <c r="B28" t="n">
         <v>91779</v>
@@ -3504,10 +3519,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>695375</v>
+        <v>695078</v>
       </c>
       <c r="R28" t="n">
-        <v>7325923</v>
+        <v>7326159</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3570,7 +3585,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>118678567</v>
+        <v>118686345</v>
       </c>
       <c r="B29" t="n">
         <v>91779</v>
@@ -3610,13 +3625,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>695345</v>
+        <v>695422</v>
       </c>
       <c r="R29" t="n">
-        <v>7326063</v>
+        <v>7325852</v>
       </c>
       <c r="S29" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3660,19 +3675,23 @@
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
-        </is>
-      </c>
-      <c r="AY29" t="inlineStr"/>
+          <t>Petra Wikström</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>118686349</v>
+        <v>118678802</v>
       </c>
       <c r="B30" t="n">
         <v>91779</v>
@@ -3712,10 +3731,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>695078</v>
+        <v>695131</v>
       </c>
       <c r="R30" t="n">
-        <v>7326159</v>
+        <v>7326326</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3762,12 +3781,12 @@
       <c r="AT30" t="inlineStr"/>
       <c r="AW30" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY30" t="inlineStr">
@@ -3778,10 +3797,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>118686288</v>
+        <v>118678795</v>
       </c>
       <c r="B31" t="n">
-        <v>74596</v>
+        <v>91765</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3794,21 +3813,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6440</v>
+        <v>3100</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3818,10 +3837,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>695403</v>
+        <v>695188</v>
       </c>
       <c r="R31" t="n">
-        <v>7326110</v>
+        <v>7325764</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3868,12 +3887,12 @@
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX31" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY31" t="inlineStr">
@@ -3884,10 +3903,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>118686304</v>
+        <v>118678711</v>
       </c>
       <c r="B32" t="n">
-        <v>97867</v>
+        <v>91773</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3896,25 +3915,25 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>221952</v>
+        <v>4362</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -3924,10 +3943,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>695419</v>
+        <v>695173</v>
       </c>
       <c r="R32" t="n">
-        <v>7326003</v>
+        <v>7325777</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -3974,12 +3993,12 @@
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX32" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AY32" t="inlineStr">
@@ -3990,10 +4009,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>118686351</v>
+        <v>118678803</v>
       </c>
       <c r="B33" t="n">
-        <v>79600</v>
+        <v>91779</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4006,21 +4025,21 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6463</v>
+        <v>4364</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
@@ -4030,10 +4049,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>695428</v>
+        <v>694968</v>
       </c>
       <c r="R33" t="n">
-        <v>7325970</v>
+        <v>7325982</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4068,11 +4087,6 @@
           <t>2024-07-25</t>
         </is>
       </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>På En</t>
-        </is>
-      </c>
       <c r="AD33" t="b">
         <v>0</v>
       </c>
@@ -4085,12 +4099,12 @@
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX33" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY33" t="inlineStr">
@@ -4101,10 +4115,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>118678795</v>
+        <v>118682130</v>
       </c>
       <c r="B34" t="n">
-        <v>91765</v>
+        <v>91779</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4113,38 +4127,45 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3100</v>
+        <v>4364</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>695188</v>
+        <v>695141</v>
       </c>
       <c r="R34" t="n">
-        <v>7325764</v>
+        <v>7326162</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4185,18 +4206,19 @@
       <c r="AE34" t="b">
         <v>0</v>
       </c>
+      <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="b">
         <v>0</v>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX34" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY34" t="inlineStr">
@@ -4207,10 +4229,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>118678711</v>
+        <v>118678702</v>
       </c>
       <c r="B35" t="n">
-        <v>91773</v>
+        <v>90654</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4219,25 +4241,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4362</v>
+        <v>1503</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4247,10 +4269,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>695173</v>
+        <v>695217</v>
       </c>
       <c r="R35" t="n">
-        <v>7325777</v>
+        <v>7326134</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4313,10 +4335,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>118686311</v>
+        <v>118678800</v>
       </c>
       <c r="B36" t="n">
-        <v>91791</v>
+        <v>90749</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4325,25 +4347,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4366</v>
+        <v>65</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4353,10 +4375,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>695240</v>
+        <v>695241</v>
       </c>
       <c r="R36" t="n">
-        <v>7326281</v>
+        <v>7325733</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4403,12 +4425,12 @@
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX36" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY36" t="inlineStr">
@@ -4419,10 +4441,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>118682354</v>
+        <v>118679665</v>
       </c>
       <c r="B37" t="n">
-        <v>91822</v>
+        <v>77868</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4435,29 +4457,25 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>5448</v>
+        <v>6437</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
@@ -4466,10 +4484,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>695180</v>
+        <v>695117</v>
       </c>
       <c r="R37" t="n">
-        <v>7326201</v>
+        <v>7325782</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4510,14 +4528,8 @@
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AS37" t="inlineStr">
-        <is>
-          <t>Sebastian Kirppu</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -4538,10 +4550,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>118678708</v>
+        <v>118686331</v>
       </c>
       <c r="B38" t="n">
-        <v>77416</v>
+        <v>78220</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4554,21 +4566,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6487</v>
+        <v>6446</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4578,10 +4590,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>695257</v>
+        <v>695087</v>
       </c>
       <c r="R38" t="n">
-        <v>7326072</v>
+        <v>7326209</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4628,12 +4640,12 @@
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX38" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY38" t="inlineStr">
@@ -4644,7 +4656,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>118686317</v>
+        <v>118686313</v>
       </c>
       <c r="B39" t="n">
         <v>96807</v>
@@ -4684,10 +4696,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>695472</v>
+        <v>695388</v>
       </c>
       <c r="R39" t="n">
-        <v>7325844</v>
+        <v>7326028</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -4750,10 +4762,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>118686327</v>
+        <v>118686314</v>
       </c>
       <c r="B40" t="n">
-        <v>77421</v>
+        <v>96807</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4762,25 +4774,25 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>228579</v>
+        <v>221941</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Liten svartspik</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Chaenothecopsis nana</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4790,10 +4802,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>695379</v>
+        <v>695472</v>
       </c>
       <c r="R40" t="n">
-        <v>7326065</v>
+        <v>7325932</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -4856,10 +4868,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>118686339</v>
+        <v>118686317</v>
       </c>
       <c r="B41" t="n">
-        <v>90654</v>
+        <v>96807</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4868,25 +4880,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1503</v>
+        <v>221941</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -4896,10 +4908,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>695079</v>
+        <v>695472</v>
       </c>
       <c r="R41" t="n">
-        <v>7326251</v>
+        <v>7325844</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -4962,10 +4974,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>118686353</v>
+        <v>118678796</v>
       </c>
       <c r="B42" t="n">
-        <v>91773</v>
+        <v>91783</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -4974,25 +4986,25 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>4362</v>
+        <v>4365</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
@@ -5002,10 +5014,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>695301</v>
+        <v>695095</v>
       </c>
       <c r="R42" t="n">
-        <v>7326044</v>
+        <v>7325816</v>
       </c>
       <c r="S42" t="n">
         <v>10</v>
@@ -5046,19 +5058,18 @@
       <c r="AE42" t="b">
         <v>0</v>
       </c>
-      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="b">
         <v>0</v>
       </c>
       <c r="AT42" t="inlineStr"/>
       <c r="AW42" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX42" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Göran Ehn, Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY42" t="inlineStr">
@@ -5069,10 +5080,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>118678560</v>
+        <v>118686358</v>
       </c>
       <c r="B43" t="n">
-        <v>91779</v>
+        <v>77868</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5081,25 +5092,25 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4364</v>
+        <v>6437</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
@@ -5109,13 +5120,13 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>695345</v>
+        <v>695375</v>
       </c>
       <c r="R43" t="n">
-        <v>7326061</v>
+        <v>7325923</v>
       </c>
       <c r="S43" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5159,22 +5170,26 @@
       <c r="AT43" t="inlineStr"/>
       <c r="AW43" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX43" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
-        </is>
-      </c>
-      <c r="AY43" t="inlineStr"/>
+          <t>Petra Wikström</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>118678570</v>
+        <v>118686348</v>
       </c>
       <c r="B44" t="n">
-        <v>91773</v>
+        <v>91779</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5183,25 +5198,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>4362</v>
+        <v>4364</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5211,13 +5226,13 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>695413</v>
+        <v>695098</v>
       </c>
       <c r="R44" t="n">
-        <v>7325711</v>
+        <v>7326160</v>
       </c>
       <c r="S44" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T44" t="inlineStr">
         <is>
@@ -5261,19 +5276,23 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
-        </is>
-      </c>
-      <c r="AY44" t="inlineStr"/>
+          <t>Petra Wikström</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>118678803</v>
+        <v>118678566</v>
       </c>
       <c r="B45" t="n">
         <v>91779</v>
@@ -5313,13 +5332,13 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>694968</v>
+        <v>695372</v>
       </c>
       <c r="R45" t="n">
-        <v>7325982</v>
+        <v>7326039</v>
       </c>
       <c r="S45" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5363,23 +5382,19 @@
       <c r="AT45" t="inlineStr"/>
       <c r="AW45" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Petya Valcheva</t>
         </is>
       </c>
       <c r="AX45" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
-        </is>
-      </c>
-      <c r="AY45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Petya Valcheva</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>118678705</v>
+        <v>118681707</v>
       </c>
       <c r="B46" t="n">
         <v>91779</v>
@@ -5413,16 +5428,23 @@
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
       <c r="P46" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>695202</v>
+        <v>695514</v>
       </c>
       <c r="R46" t="n">
-        <v>7325760</v>
+        <v>7325701</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5463,18 +5485,19 @@
       <c r="AE46" t="b">
         <v>0</v>
       </c>
+      <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="b">
         <v>0</v>
       </c>
       <c r="AT46" t="inlineStr"/>
       <c r="AW46" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX46" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY46" t="inlineStr">
@@ -5485,10 +5508,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>118678701</v>
+        <v>118678557</v>
       </c>
       <c r="B47" t="n">
-        <v>77416</v>
+        <v>90654</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5497,25 +5520,25 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6487</v>
+        <v>1503</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
@@ -5525,13 +5548,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>695079</v>
+        <v>695306</v>
       </c>
       <c r="R47" t="n">
-        <v>7326308</v>
+        <v>7325712</v>
       </c>
       <c r="S47" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5575,23 +5598,19 @@
       <c r="AT47" t="inlineStr"/>
       <c r="AW47" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Petya Valcheva</t>
         </is>
       </c>
       <c r="AX47" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
-        </is>
-      </c>
-      <c r="AY47" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Petya Valcheva</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>118678558</v>
+        <v>118682393</v>
       </c>
       <c r="B48" t="n">
         <v>90654</v>
@@ -5625,19 +5644,26 @@
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
       <c r="P48" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>695279</v>
+        <v>695079</v>
       </c>
       <c r="R48" t="n">
-        <v>7326065</v>
+        <v>7326250</v>
       </c>
       <c r="S48" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T48" t="inlineStr">
         <is>
@@ -5675,28 +5701,33 @@
       <c r="AE48" t="b">
         <v>0</v>
       </c>
+      <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="b">
         <v>0</v>
       </c>
       <c r="AT48" t="inlineStr"/>
       <c r="AW48" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX48" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
-        </is>
-      </c>
-      <c r="AY48" t="inlineStr"/>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>118679571</v>
+        <v>118678696</v>
       </c>
       <c r="B49" t="n">
-        <v>91771</v>
+        <v>96807</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5705,45 +5736,38 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4361</v>
+        <v>221941</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
       <c r="P49" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>695061</v>
+        <v>695508</v>
       </c>
       <c r="R49" t="n">
-        <v>7325839</v>
+        <v>7325751</v>
       </c>
       <c r="S49" t="n">
         <v>10</v>
@@ -5790,12 +5814,12 @@
       <c r="AT49" t="inlineStr"/>
       <c r="AW49" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX49" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AY49" t="inlineStr">
@@ -5806,10 +5830,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>118678549</v>
+        <v>118686319</v>
       </c>
       <c r="B50" t="n">
-        <v>91765</v>
+        <v>96807</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5818,25 +5842,25 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>3100</v>
+        <v>221941</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -5846,13 +5870,13 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>694954</v>
+        <v>695205</v>
       </c>
       <c r="R50" t="n">
-        <v>7325865</v>
+        <v>7326106</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -5896,22 +5920,26 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
-        </is>
-      </c>
-      <c r="AY50" t="inlineStr"/>
+          <t>Petra Wikström</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>118678561</v>
+        <v>118683713</v>
       </c>
       <c r="B51" t="n">
-        <v>91779</v>
+        <v>96860</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -5924,37 +5952,41 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>4364</v>
+        <v>221063</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Trådfräken</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Equisetum scirpoides</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>Michx.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
       <c r="P51" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>694999</v>
+        <v>695400</v>
       </c>
       <c r="R51" t="n">
-        <v>7326161</v>
+        <v>7326078</v>
       </c>
       <c r="S51" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -5992,25 +6024,30 @@
       <c r="AE51" t="b">
         <v>0</v>
       </c>
+      <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="b">
         <v>0</v>
       </c>
       <c r="AT51" t="inlineStr"/>
       <c r="AW51" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX51" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
-        </is>
-      </c>
-      <c r="AY51" t="inlineStr"/>
+          <t>Nicklas Gustavsson</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>118686354</v>
+        <v>118686357</v>
       </c>
       <c r="B52" t="n">
         <v>77868</v>
@@ -6050,10 +6087,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>695325</v>
+        <v>695484</v>
       </c>
       <c r="R52" t="n">
-        <v>7326205</v>
+        <v>7325908</v>
       </c>
       <c r="S52" t="n">
         <v>10</v>
@@ -6116,10 +6153,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>118686340</v>
+        <v>118678549</v>
       </c>
       <c r="B53" t="n">
-        <v>77416</v>
+        <v>91765</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6132,21 +6169,21 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6487</v>
+        <v>3100</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
@@ -6156,13 +6193,13 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>695468</v>
+        <v>694954</v>
       </c>
       <c r="R53" t="n">
-        <v>7325842</v>
+        <v>7325865</v>
       </c>
       <c r="S53" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6206,26 +6243,22 @@
       <c r="AT53" t="inlineStr"/>
       <c r="AW53" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Petya Valcheva</t>
         </is>
       </c>
       <c r="AX53" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
-        </is>
-      </c>
-      <c r="AY53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Petya Valcheva</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>118678555</v>
+        <v>118686311</v>
       </c>
       <c r="B54" t="n">
-        <v>78220</v>
+        <v>91791</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6234,25 +6267,25 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6446</v>
+        <v>4366</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6262,13 +6295,13 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>695027</v>
+        <v>695240</v>
       </c>
       <c r="R54" t="n">
-        <v>7325837</v>
+        <v>7326281</v>
       </c>
       <c r="S54" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6312,22 +6345,26 @@
       <c r="AT54" t="inlineStr"/>
       <c r="AW54" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX54" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
-        </is>
-      </c>
-      <c r="AY54" t="inlineStr"/>
+          <t>Petra Wikström</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>118686330</v>
+        <v>118686304</v>
       </c>
       <c r="B55" t="n">
-        <v>97750</v>
+        <v>97867</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6340,21 +6377,21 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>220093</v>
+        <v>221952</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Korallrot</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Corallorhiza trifida</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Châtel.</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -6364,10 +6401,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>695407</v>
+        <v>695419</v>
       </c>
       <c r="R55" t="n">
-        <v>7326094</v>
+        <v>7326003</v>
       </c>
       <c r="S55" t="n">
         <v>10</v>
@@ -6430,10 +6467,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>118679665</v>
+        <v>118686318</v>
       </c>
       <c r="B56" t="n">
-        <v>77868</v>
+        <v>96807</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6442,41 +6479,38 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>6437</v>
+        <v>221941</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>695117</v>
+        <v>695337</v>
       </c>
       <c r="R56" t="n">
-        <v>7325782</v>
+        <v>7326022</v>
       </c>
       <c r="S56" t="n">
         <v>10</v>
@@ -6523,12 +6557,12 @@
       <c r="AT56" t="inlineStr"/>
       <c r="AW56" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX56" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY56" t="inlineStr">
@@ -6539,10 +6573,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>118678716</v>
+        <v>118686298</v>
       </c>
       <c r="B57" t="n">
-        <v>77868</v>
+        <v>79102</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6555,21 +6589,21 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>6437</v>
+        <v>6453</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
@@ -6579,10 +6613,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>695410</v>
+        <v>695126</v>
       </c>
       <c r="R57" t="n">
-        <v>7325822</v>
+        <v>7326183</v>
       </c>
       <c r="S57" t="n">
         <v>10</v>
@@ -6629,12 +6663,12 @@
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX57" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY57" t="inlineStr">
@@ -6645,10 +6679,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>118686289</v>
+        <v>118683560</v>
       </c>
       <c r="B58" t="n">
-        <v>74596</v>
+        <v>78221</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6661,37 +6695,40 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>6440</v>
+        <v>228912</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
       <c r="P58" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>695423</v>
+        <v>695444</v>
       </c>
       <c r="R58" t="n">
-        <v>7325966</v>
+        <v>7325887</v>
       </c>
       <c r="S58" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T58" t="inlineStr">
         <is>
@@ -6729,18 +6766,19 @@
       <c r="AE58" t="b">
         <v>0</v>
       </c>
+      <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="b">
         <v>0</v>
       </c>
       <c r="AT58" t="inlineStr"/>
       <c r="AW58" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AX58" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Nicklas Gustavsson</t>
         </is>
       </c>
       <c r="AY58" t="inlineStr">
@@ -6751,7 +6789,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>118682393</v>
+        <v>118681639</v>
       </c>
       <c r="B59" t="n">
         <v>90654</v>
@@ -6798,10 +6836,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>695079</v>
+        <v>695299</v>
       </c>
       <c r="R59" t="n">
-        <v>7326250</v>
+        <v>7325729</v>
       </c>
       <c r="S59" t="n">
         <v>10</v>
@@ -6865,10 +6903,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>118686332</v>
+        <v>118678563</v>
       </c>
       <c r="B60" t="n">
-        <v>78566</v>
+        <v>91779</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -6877,25 +6915,25 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>864</v>
+        <v>4364</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
@@ -6905,13 +6943,13 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>695096</v>
+        <v>695008</v>
       </c>
       <c r="R60" t="n">
-        <v>7326161</v>
+        <v>7326041</v>
       </c>
       <c r="S60" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>
@@ -6955,26 +6993,22 @@
       <c r="AT60" t="inlineStr"/>
       <c r="AW60" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Petya Valcheva</t>
         </is>
       </c>
       <c r="AX60" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
-        </is>
-      </c>
-      <c r="AY60" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Petya Valcheva</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>118682495</v>
+        <v>118680000</v>
       </c>
       <c r="B61" t="n">
-        <v>91783</v>
+        <v>90469</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -6983,25 +7017,25 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>4365</v>
+        <v>5447</v>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I61" t="inlineStr"/>
@@ -7018,10 +7052,10 @@
         </is>
       </c>
       <c r="Q61" t="n">
-        <v>695109</v>
+        <v>695139</v>
       </c>
       <c r="R61" t="n">
-        <v>7326361</v>
+        <v>7325779</v>
       </c>
       <c r="S61" t="n">
         <v>10</v>
@@ -7085,10 +7119,10 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>118678566</v>
+        <v>118678714</v>
       </c>
       <c r="B62" t="n">
-        <v>91779</v>
+        <v>77868</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -7097,25 +7131,25 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>4364</v>
+        <v>6437</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I62" t="inlineStr"/>
@@ -7125,13 +7159,13 @@
         </is>
       </c>
       <c r="Q62" t="n">
-        <v>695372</v>
+        <v>695385</v>
       </c>
       <c r="R62" t="n">
-        <v>7326039</v>
+        <v>7325900</v>
       </c>
       <c r="S62" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T62" t="inlineStr">
         <is>
@@ -7175,22 +7209,26 @@
       <c r="AT62" t="inlineStr"/>
       <c r="AW62" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX62" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
-        </is>
-      </c>
-      <c r="AY62" t="inlineStr"/>
+          <t>Lisa Olson</t>
+        </is>
+      </c>
+      <c r="AY62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>118686314</v>
+        <v>118678560</v>
       </c>
       <c r="B63" t="n">
-        <v>96807</v>
+        <v>91779</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -7203,21 +7241,21 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>221941</v>
+        <v>4364</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I63" t="inlineStr"/>
@@ -7227,13 +7265,13 @@
         </is>
       </c>
       <c r="Q63" t="n">
-        <v>695472</v>
+        <v>695345</v>
       </c>
       <c r="R63" t="n">
-        <v>7325932</v>
+        <v>7326061</v>
       </c>
       <c r="S63" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T63" t="inlineStr">
         <is>
@@ -7277,26 +7315,22 @@
       <c r="AT63" t="inlineStr"/>
       <c r="AW63" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Petya Valcheva</t>
         </is>
       </c>
       <c r="AX63" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
-        </is>
-      </c>
-      <c r="AY63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Petya Valcheva</t>
+        </is>
+      </c>
+      <c r="AY63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>118682412</v>
+        <v>118686339</v>
       </c>
       <c r="B64" t="n">
-        <v>91779</v>
+        <v>90654</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -7305,45 +7339,38 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>4364</v>
+        <v>1503</v>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
       <c r="P64" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q64" t="n">
-        <v>695096</v>
+        <v>695079</v>
       </c>
       <c r="R64" t="n">
-        <v>7326262</v>
+        <v>7326251</v>
       </c>
       <c r="S64" t="n">
         <v>10</v>
@@ -7384,19 +7411,18 @@
       <c r="AE64" t="b">
         <v>0</v>
       </c>
-      <c r="AF64" t="inlineStr"/>
       <c r="AG64" t="b">
         <v>0</v>
       </c>
       <c r="AT64" t="inlineStr"/>
       <c r="AW64" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX64" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY64" t="inlineStr">
@@ -7407,7 +7433,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>118678551</v>
+        <v>118686307</v>
       </c>
       <c r="B65" t="n">
         <v>91783</v>
@@ -7447,13 +7473,13 @@
         </is>
       </c>
       <c r="Q65" t="n">
-        <v>695163</v>
+        <v>695093</v>
       </c>
       <c r="R65" t="n">
-        <v>7326139</v>
+        <v>7326359</v>
       </c>
       <c r="S65" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T65" t="inlineStr">
         <is>
@@ -7497,22 +7523,26 @@
       <c r="AT65" t="inlineStr"/>
       <c r="AW65" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX65" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
-        </is>
-      </c>
-      <c r="AY65" t="inlineStr"/>
+          <t>Petra Wikström</t>
+        </is>
+      </c>
+      <c r="AY65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>118682439</v>
+        <v>118686308</v>
       </c>
       <c r="B66" t="n">
-        <v>91779</v>
+        <v>91783</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -7521,41 +7551,38 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
       <c r="P66" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q66" t="n">
-        <v>695105</v>
+        <v>695070</v>
       </c>
       <c r="R66" t="n">
-        <v>7326318</v>
+        <v>7326235</v>
       </c>
       <c r="S66" t="n">
         <v>10</v>
@@ -7603,12 +7630,12 @@
       <c r="AT66" t="inlineStr"/>
       <c r="AW66" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX66" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY66" t="inlineStr">
@@ -7619,10 +7646,10 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>118680221</v>
+        <v>118678793</v>
       </c>
       <c r="B67" t="n">
-        <v>90654</v>
+        <v>57290</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -7631,45 +7658,38 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>1503</v>
+        <v>100109</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
       <c r="P67" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q67" t="n">
-        <v>695211</v>
+        <v>695051</v>
       </c>
       <c r="R67" t="n">
-        <v>7325729</v>
+        <v>7326375</v>
       </c>
       <c r="S67" t="n">
         <v>10</v>
@@ -7704,6 +7724,11 @@
           <t>2024-07-25</t>
         </is>
       </c>
+      <c r="AC67" t="inlineStr">
+        <is>
+          <t>Ringhack</t>
+        </is>
+      </c>
       <c r="AD67" t="b">
         <v>0</v>
       </c>
@@ -7716,12 +7741,12 @@
       <c r="AT67" t="inlineStr"/>
       <c r="AW67" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX67" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY67" t="inlineStr">
@@ -7732,10 +7757,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>118681850</v>
+        <v>118686316</v>
       </c>
       <c r="B68" t="n">
-        <v>90654</v>
+        <v>96807</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -7744,45 +7769,38 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>1503</v>
+        <v>221941</v>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
       <c r="P68" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>695416</v>
+        <v>695466</v>
       </c>
       <c r="R68" t="n">
-        <v>7325784</v>
+        <v>7325776</v>
       </c>
       <c r="S68" t="n">
         <v>10</v>
@@ -7823,19 +7841,18 @@
       <c r="AE68" t="b">
         <v>0</v>
       </c>
-      <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="b">
         <v>0</v>
       </c>
       <c r="AT68" t="inlineStr"/>
       <c r="AW68" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX68" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY68" t="inlineStr">
@@ -7846,10 +7863,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>118678712</v>
+        <v>118686325</v>
       </c>
       <c r="B69" t="n">
-        <v>77868</v>
+        <v>78221</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -7862,21 +7879,21 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6437</v>
+        <v>228912</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I69" t="inlineStr"/>
@@ -7886,10 +7903,10 @@
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>695202</v>
+        <v>695112</v>
       </c>
       <c r="R69" t="n">
-        <v>7325765</v>
+        <v>7326165</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -7936,12 +7953,12 @@
       <c r="AT69" t="inlineStr"/>
       <c r="AW69" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX69" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY69" t="inlineStr">
@@ -7952,10 +7969,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>118678714</v>
+        <v>118678704</v>
       </c>
       <c r="B70" t="n">
-        <v>77868</v>
+        <v>78129</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -7968,21 +7985,21 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>6437</v>
+        <v>353</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I70" t="inlineStr"/>
@@ -7992,10 +8009,10 @@
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>695385</v>
+        <v>695075</v>
       </c>
       <c r="R70" t="n">
-        <v>7325900</v>
+        <v>7326304</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8058,10 +8075,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>118686324</v>
+        <v>118678703</v>
       </c>
       <c r="B71" t="n">
-        <v>91771</v>
+        <v>90749</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -8070,25 +8087,25 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4361</v>
+        <v>65</v>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
@@ -8098,10 +8115,10 @@
         </is>
       </c>
       <c r="Q71" t="n">
-        <v>695164</v>
+        <v>695179</v>
       </c>
       <c r="R71" t="n">
-        <v>7326296</v>
+        <v>7325774</v>
       </c>
       <c r="S71" t="n">
         <v>10</v>
@@ -8148,12 +8165,12 @@
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX71" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AY71" t="inlineStr">
@@ -8164,10 +8181,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>118678693</v>
+        <v>118678798</v>
       </c>
       <c r="B72" t="n">
-        <v>79102</v>
+        <v>78220</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -8180,21 +8197,21 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
@@ -8204,10 +8221,10 @@
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>695052</v>
+        <v>695131</v>
       </c>
       <c r="R72" t="n">
-        <v>7326181</v>
+        <v>7326269</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -8259,7 +8276,7 @@
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr">
@@ -8270,7 +8287,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>118686296</v>
+        <v>118686294</v>
       </c>
       <c r="B73" t="n">
         <v>79102</v>
@@ -8310,10 +8327,10 @@
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>695177</v>
+        <v>695282</v>
       </c>
       <c r="R73" t="n">
-        <v>7326143</v>
+        <v>7326056</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -8376,10 +8393,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>118682091</v>
+        <v>118686296</v>
       </c>
       <c r="B74" t="n">
-        <v>91771</v>
+        <v>79102</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -8392,41 +8409,34 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>4361</v>
+        <v>6453</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>695263</v>
+        <v>695177</v>
       </c>
       <c r="R74" t="n">
-        <v>7326094</v>
+        <v>7326143</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8467,19 +8477,18 @@
       <c r="AE74" t="b">
         <v>0</v>
       </c>
-      <c r="AF74" t="inlineStr"/>
       <c r="AG74" t="b">
         <v>0</v>
       </c>
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr">
@@ -8490,10 +8499,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>118678553</v>
+        <v>118686290</v>
       </c>
       <c r="B75" t="n">
-        <v>91771</v>
+        <v>79102</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -8506,21 +8515,21 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>4361</v>
+        <v>6453</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
@@ -8530,13 +8539,13 @@
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>695221</v>
+        <v>695074</v>
       </c>
       <c r="R75" t="n">
-        <v>7326126</v>
+        <v>7326206</v>
       </c>
       <c r="S75" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T75" t="inlineStr">
         <is>
@@ -8580,22 +8589,26 @@
       <c r="AT75" t="inlineStr"/>
       <c r="AW75" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX75" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
-        </is>
-      </c>
-      <c r="AY75" t="inlineStr"/>
+          <t>Petra Wikström</t>
+        </is>
+      </c>
+      <c r="AY75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>118681907</v>
+        <v>118686299</v>
       </c>
       <c r="B76" t="n">
-        <v>91771</v>
+        <v>79073</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -8608,41 +8621,34 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>4361</v>
+        <v>229821</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>695416</v>
+        <v>695484</v>
       </c>
       <c r="R76" t="n">
-        <v>7325784</v>
+        <v>7325908</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8683,19 +8689,18 @@
       <c r="AE76" t="b">
         <v>0</v>
       </c>
-      <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="b">
         <v>0</v>
       </c>
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr">
@@ -8706,10 +8711,10 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>118678565</v>
+        <v>118686287</v>
       </c>
       <c r="B77" t="n">
-        <v>91779</v>
+        <v>104925</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -8722,21 +8727,21 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>4364</v>
+        <v>221725</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Ögonpyrola</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Moneses uniflora</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) A. Gray</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
@@ -8746,13 +8751,13 @@
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>695445</v>
+        <v>695396</v>
       </c>
       <c r="R77" t="n">
-        <v>7325726</v>
+        <v>7326083</v>
       </c>
       <c r="S77" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T77" t="inlineStr">
         <is>
@@ -8796,22 +8801,26 @@
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
-        </is>
-      </c>
-      <c r="AY77" t="inlineStr"/>
+          <t>Petra Wikström</t>
+        </is>
+      </c>
+      <c r="AY77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>118678713</v>
+        <v>118682065</v>
       </c>
       <c r="B78" t="n">
-        <v>77868</v>
+        <v>90749</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -8820,38 +8829,45 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6437</v>
+        <v>65</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>695321</v>
+        <v>695416</v>
       </c>
       <c r="R78" t="n">
-        <v>7325717</v>
+        <v>7325887</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8892,18 +8908,19 @@
       <c r="AE78" t="b">
         <v>0</v>
       </c>
+      <c r="AF78" t="inlineStr"/>
       <c r="AG78" t="b">
         <v>0</v>
       </c>
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr">
@@ -8914,10 +8931,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>118678700</v>
+        <v>118678568</v>
       </c>
       <c r="B79" t="n">
-        <v>78221</v>
+        <v>91779</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -8926,25 +8943,25 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I79" t="inlineStr"/>
@@ -8954,13 +8971,13 @@
         </is>
       </c>
       <c r="Q79" t="n">
-        <v>695266</v>
+        <v>695208</v>
       </c>
       <c r="R79" t="n">
-        <v>7325752</v>
+        <v>7326148</v>
       </c>
       <c r="S79" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T79" t="inlineStr">
         <is>
@@ -9004,23 +9021,19 @@
       <c r="AT79" t="inlineStr"/>
       <c r="AW79" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Petya Valcheva</t>
         </is>
       </c>
       <c r="AX79" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
-        </is>
-      </c>
-      <c r="AY79" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Petya Valcheva</t>
+        </is>
+      </c>
+      <c r="AY79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>118506665</v>
+        <v>118678801</v>
       </c>
       <c r="B80" t="n">
         <v>91779</v>
@@ -9054,23 +9067,16 @@
         </is>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
       <c r="P80" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q80" t="n">
-        <v>694983</v>
+        <v>695077</v>
       </c>
       <c r="R80" t="n">
-        <v>7326014</v>
+        <v>7325858</v>
       </c>
       <c r="S80" t="n">
         <v>10</v>
@@ -9097,12 +9103,12 @@
       </c>
       <c r="Y80" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="AA80" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="AD80" t="b">
@@ -9111,29 +9117,32 @@
       <c r="AE80" t="b">
         <v>0</v>
       </c>
-      <c r="AF80" t="inlineStr"/>
       <c r="AG80" t="b">
         <v>0</v>
       </c>
       <c r="AT80" t="inlineStr"/>
       <c r="AW80" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX80" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
-        </is>
-      </c>
-      <c r="AY80" t="inlineStr"/>
+          <t>Göran Ehn</t>
+        </is>
+      </c>
+      <c r="AY80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>118678568</v>
+        <v>118682091</v>
       </c>
       <c r="B81" t="n">
-        <v>91779</v>
+        <v>91771</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -9142,41 +9151,48 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
       <c r="P81" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q81" t="n">
-        <v>695208</v>
+        <v>695263</v>
       </c>
       <c r="R81" t="n">
-        <v>7326148</v>
+        <v>7326094</v>
       </c>
       <c r="S81" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T81" t="inlineStr">
         <is>
@@ -9214,25 +9230,30 @@
       <c r="AE81" t="b">
         <v>0</v>
       </c>
+      <c r="AF81" t="inlineStr"/>
       <c r="AG81" t="b">
         <v>0</v>
       </c>
       <c r="AT81" t="inlineStr"/>
       <c r="AW81" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX81" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
-        </is>
-      </c>
-      <c r="AY81" t="inlineStr"/>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AY81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>118686350</v>
+        <v>118680029</v>
       </c>
       <c r="B82" t="n">
         <v>91779</v>
@@ -9266,16 +9287,23 @@
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
       <c r="P82" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>695135</v>
+        <v>695157</v>
       </c>
       <c r="R82" t="n">
-        <v>7326180</v>
+        <v>7325779</v>
       </c>
       <c r="S82" t="n">
         <v>10</v>
@@ -9316,19 +9344,18 @@
       <c r="AE82" t="b">
         <v>0</v>
       </c>
-      <c r="AF82" t="inlineStr"/>
       <c r="AG82" t="b">
         <v>0</v>
       </c>
       <c r="AT82" t="inlineStr"/>
       <c r="AW82" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX82" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY82" t="inlineStr">
@@ -9339,10 +9366,10 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>118678556</v>
+        <v>118678804</v>
       </c>
       <c r="B83" t="n">
-        <v>78220</v>
+        <v>91773</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -9355,21 +9382,21 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6446</v>
+        <v>4362</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -9379,13 +9406,13 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>695284</v>
+        <v>695120</v>
       </c>
       <c r="R83" t="n">
-        <v>7325714</v>
+        <v>7326306</v>
       </c>
       <c r="S83" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T83" t="inlineStr">
         <is>
@@ -9429,22 +9456,26 @@
       <c r="AT83" t="inlineStr"/>
       <c r="AW83" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX83" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
-        </is>
-      </c>
-      <c r="AY83" t="inlineStr"/>
+          <t>Göran Ehn, Nicklas Gustavsson</t>
+        </is>
+      </c>
+      <c r="AY83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>118686294</v>
+        <v>118682158</v>
       </c>
       <c r="B84" t="n">
-        <v>79102</v>
+        <v>91779</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -9453,38 +9484,45 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>6453</v>
+        <v>4364</v>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
       <c r="P84" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q84" t="n">
-        <v>695282</v>
+        <v>695192</v>
       </c>
       <c r="R84" t="n">
-        <v>7326056</v>
+        <v>7326140</v>
       </c>
       <c r="S84" t="n">
         <v>10</v>
@@ -9525,18 +9563,19 @@
       <c r="AE84" t="b">
         <v>0</v>
       </c>
+      <c r="AF84" t="inlineStr"/>
       <c r="AG84" t="b">
         <v>0</v>
       </c>
       <c r="AT84" t="inlineStr"/>
       <c r="AW84" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX84" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY84" t="inlineStr">
@@ -9547,10 +9586,10 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>118678799</v>
+        <v>118682354</v>
       </c>
       <c r="B85" t="n">
-        <v>89906</v>
+        <v>91822</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -9559,38 +9598,45 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>5685</v>
+        <v>5448</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Schultz) nom.prov</t>
         </is>
       </c>
       <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
       <c r="P85" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q85" t="n">
-        <v>695426</v>
+        <v>695180</v>
       </c>
       <c r="R85" t="n">
-        <v>7325813</v>
+        <v>7326201</v>
       </c>
       <c r="S85" t="n">
         <v>10</v>
@@ -9631,18 +9677,24 @@
       <c r="AE85" t="b">
         <v>0</v>
       </c>
+      <c r="AF85" t="inlineStr"/>
       <c r="AG85" t="b">
         <v>0</v>
+      </c>
+      <c r="AS85" t="inlineStr">
+        <is>
+          <t>Sebastian Kirppu</t>
+        </is>
       </c>
       <c r="AT85" t="inlineStr"/>
       <c r="AW85" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX85" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY85" t="inlineStr">
@@ -9653,10 +9705,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>118681945</v>
+        <v>118686355</v>
       </c>
       <c r="B86" t="n">
-        <v>91779</v>
+        <v>77868</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -9665,45 +9717,38 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>4364</v>
+        <v>6437</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
       <c r="P86" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q86" t="n">
-        <v>695407</v>
+        <v>695377</v>
       </c>
       <c r="R86" t="n">
-        <v>7325872</v>
+        <v>7326043</v>
       </c>
       <c r="S86" t="n">
         <v>10</v>
@@ -9744,19 +9789,18 @@
       <c r="AE86" t="b">
         <v>0</v>
       </c>
-      <c r="AF86" t="inlineStr"/>
       <c r="AG86" t="b">
         <v>0</v>
       </c>
       <c r="AT86" t="inlineStr"/>
       <c r="AW86" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX86" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY86" t="inlineStr">
@@ -9767,10 +9811,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>118686301</v>
+        <v>118686291</v>
       </c>
       <c r="B87" t="n">
-        <v>90524</v>
+        <v>79102</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -9783,21 +9827,21 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>5442</v>
+        <v>6453</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
@@ -9807,10 +9851,10 @@
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>695267</v>
+        <v>695484</v>
       </c>
       <c r="R87" t="n">
-        <v>7326118</v>
+        <v>7325908</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9873,10 +9917,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>118681707</v>
+        <v>118678556</v>
       </c>
       <c r="B88" t="n">
-        <v>91779</v>
+        <v>78220</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -9885,48 +9929,41 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>4364</v>
+        <v>6446</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
       <c r="P88" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>695514</v>
+        <v>695284</v>
       </c>
       <c r="R88" t="n">
-        <v>7325701</v>
+        <v>7325714</v>
       </c>
       <c r="S88" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T88" t="inlineStr">
         <is>
@@ -9964,33 +10001,28 @@
       <c r="AE88" t="b">
         <v>0</v>
       </c>
-      <c r="AF88" t="inlineStr"/>
       <c r="AG88" t="b">
         <v>0</v>
       </c>
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petya Valcheva</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
-        </is>
-      </c>
-      <c r="AY88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Petya Valcheva</t>
+        </is>
+      </c>
+      <c r="AY88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>118680000</v>
+        <v>118678558</v>
       </c>
       <c r="B89" t="n">
-        <v>90469</v>
+        <v>90654</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -9999,48 +10031,41 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>5447</v>
+        <v>1503</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
       <c r="P89" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>695139</v>
+        <v>695279</v>
       </c>
       <c r="R89" t="n">
-        <v>7325779</v>
+        <v>7326065</v>
       </c>
       <c r="S89" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T89" t="inlineStr">
         <is>
@@ -10078,33 +10103,28 @@
       <c r="AE89" t="b">
         <v>0</v>
       </c>
-      <c r="AF89" t="inlineStr"/>
       <c r="AG89" t="b">
         <v>0</v>
       </c>
       <c r="AT89" t="inlineStr"/>
       <c r="AW89" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petya Valcheva</t>
         </is>
       </c>
       <c r="AX89" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
-        </is>
-      </c>
-      <c r="AY89" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Petya Valcheva</t>
+        </is>
+      </c>
+      <c r="AY89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>118678798</v>
+        <v>118681850</v>
       </c>
       <c r="B90" t="n">
-        <v>78220</v>
+        <v>90654</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -10113,38 +10133,45 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>6446</v>
+        <v>1503</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>695131</v>
+        <v>695416</v>
       </c>
       <c r="R90" t="n">
-        <v>7326269</v>
+        <v>7325784</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -10185,18 +10212,19 @@
       <c r="AE90" t="b">
         <v>0</v>
       </c>
+      <c r="AF90" t="inlineStr"/>
       <c r="AG90" t="b">
         <v>0</v>
       </c>
       <c r="AT90" t="inlineStr"/>
       <c r="AW90" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX90" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY90" t="inlineStr">
@@ -10207,10 +10235,10 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>118686325</v>
+        <v>118678550</v>
       </c>
       <c r="B91" t="n">
-        <v>78221</v>
+        <v>91765</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -10223,21 +10251,21 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>228912</v>
+        <v>3100</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -10247,13 +10275,13 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>695112</v>
+        <v>695167</v>
       </c>
       <c r="R91" t="n">
-        <v>7326165</v>
+        <v>7326043</v>
       </c>
       <c r="S91" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T91" t="inlineStr">
         <is>
@@ -10297,26 +10325,22 @@
       <c r="AT91" t="inlineStr"/>
       <c r="AW91" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Petya Valcheva</t>
         </is>
       </c>
       <c r="AX91" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
-        </is>
-      </c>
-      <c r="AY91" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Petya Valcheva</t>
+        </is>
+      </c>
+      <c r="AY91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>118686316</v>
+        <v>118682439</v>
       </c>
       <c r="B92" t="n">
-        <v>96807</v>
+        <v>91779</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -10329,34 +10353,37 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>221941</v>
+        <v>4364</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
       <c r="P92" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>695466</v>
+        <v>695105</v>
       </c>
       <c r="R92" t="n">
-        <v>7325776</v>
+        <v>7326318</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -10397,18 +10424,19 @@
       <c r="AE92" t="b">
         <v>0</v>
       </c>
+      <c r="AF92" t="inlineStr"/>
       <c r="AG92" t="b">
         <v>0</v>
       </c>
       <c r="AT92" t="inlineStr"/>
       <c r="AW92" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX92" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY92" t="inlineStr">
@@ -10419,10 +10447,10 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>118686322</v>
+        <v>118686302</v>
       </c>
       <c r="B93" t="n">
-        <v>96807</v>
+        <v>91765</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -10431,25 +10459,25 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>221941</v>
+        <v>3100</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Talltaggsvamp</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Bankera fuligineoalba</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Schmidt : Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
@@ -10459,10 +10487,10 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>695088</v>
+        <v>695384</v>
       </c>
       <c r="R93" t="n">
-        <v>7326290</v>
+        <v>7326042</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -10525,10 +10553,10 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>118683713</v>
+        <v>118678705</v>
       </c>
       <c r="B94" t="n">
-        <v>96860</v>
+        <v>91779</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -10541,41 +10569,37 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>221063</v>
+        <v>4364</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Trådfräken</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Equisetum scirpoides</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Michx.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="N94" t="inlineStr"/>
       <c r="P94" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>695400</v>
+        <v>695202</v>
       </c>
       <c r="R94" t="n">
-        <v>7326078</v>
+        <v>7325760</v>
       </c>
       <c r="S94" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T94" t="inlineStr">
         <is>
@@ -10613,19 +10637,18 @@
       <c r="AE94" t="b">
         <v>0</v>
       </c>
-      <c r="AF94" t="inlineStr"/>
       <c r="AG94" t="b">
         <v>0</v>
       </c>
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Nicklas Gustavsson</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AY94" t="inlineStr">
@@ -10636,10 +10659,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>118678572</v>
+        <v>118686301</v>
       </c>
       <c r="B95" t="n">
-        <v>91773</v>
+        <v>90524</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -10652,21 +10675,21 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>4362</v>
+        <v>5442</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -10676,13 +10699,13 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>695167</v>
+        <v>695267</v>
       </c>
       <c r="R95" t="n">
-        <v>7326207</v>
+        <v>7326118</v>
       </c>
       <c r="S95" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T95" t="inlineStr">
         <is>
@@ -10726,22 +10749,26 @@
       <c r="AT95" t="inlineStr"/>
       <c r="AW95" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX95" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
-        </is>
-      </c>
-      <c r="AY95" t="inlineStr"/>
+          <t>Petra Wikström</t>
+        </is>
+      </c>
+      <c r="AY95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>118678715</v>
+        <v>118678564</v>
       </c>
       <c r="B96" t="n">
-        <v>77868</v>
+        <v>91779</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -10750,25 +10777,25 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6437</v>
+        <v>4364</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
@@ -10778,13 +10805,13 @@
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>695076</v>
+        <v>695003</v>
       </c>
       <c r="R96" t="n">
-        <v>7326305</v>
+        <v>7325994</v>
       </c>
       <c r="S96" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T96" t="inlineStr">
         <is>
@@ -10828,26 +10855,22 @@
       <c r="AT96" t="inlineStr"/>
       <c r="AW96" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Petya Valcheva</t>
         </is>
       </c>
       <c r="AX96" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
-        </is>
-      </c>
-      <c r="AY96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Petya Valcheva</t>
+        </is>
+      </c>
+      <c r="AY96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>118686287</v>
+        <v>118678713</v>
       </c>
       <c r="B97" t="n">
-        <v>104925</v>
+        <v>77868</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -10856,25 +10879,25 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>221725</v>
+        <v>6437</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Ögonpyrola</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Moneses uniflora</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>(L.) A. Gray</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I97" t="inlineStr"/>
@@ -10884,10 +10907,10 @@
         </is>
       </c>
       <c r="Q97" t="n">
-        <v>695396</v>
+        <v>695321</v>
       </c>
       <c r="R97" t="n">
-        <v>7326083</v>
+        <v>7325717</v>
       </c>
       <c r="S97" t="n">
         <v>10</v>
@@ -10934,12 +10957,12 @@
       <c r="AT97" t="inlineStr"/>
       <c r="AW97" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX97" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AY97" t="inlineStr">
@@ -10950,10 +10973,10 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>118686297</v>
+        <v>118678710</v>
       </c>
       <c r="B98" t="n">
-        <v>79102</v>
+        <v>77416</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -10966,21 +10989,21 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>6453</v>
+        <v>6487</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I98" t="inlineStr"/>
@@ -10990,10 +11013,10 @@
         </is>
       </c>
       <c r="Q98" t="n">
-        <v>695086</v>
+        <v>695269</v>
       </c>
       <c r="R98" t="n">
-        <v>7326151</v>
+        <v>7325748</v>
       </c>
       <c r="S98" t="n">
         <v>10</v>
@@ -11040,12 +11063,12 @@
       <c r="AT98" t="inlineStr"/>
       <c r="AW98" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX98" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AY98" t="inlineStr">
@@ -11056,10 +11079,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>118686298</v>
+        <v>118678794</v>
       </c>
       <c r="B99" t="n">
-        <v>79102</v>
+        <v>56502</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -11068,38 +11091,50 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>6453</v>
+        <v>100138</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr"/>
+          <t>Linnaeus, 1758</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>äldre spillning</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr"/>
       <c r="P99" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>695126</v>
+        <v>695080</v>
       </c>
       <c r="R99" t="n">
-        <v>7326183</v>
+        <v>7325815</v>
       </c>
       <c r="S99" t="n">
         <v>10</v>
@@ -11146,12 +11181,12 @@
       <c r="AT99" t="inlineStr"/>
       <c r="AW99" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX99" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY99" t="inlineStr">
@@ -11162,10 +11197,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>118678562</v>
+        <v>118678708</v>
       </c>
       <c r="B100" t="n">
-        <v>91779</v>
+        <v>77416</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -11174,25 +11209,25 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>4364</v>
+        <v>6487</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -11202,13 +11237,13 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>695066</v>
+        <v>695257</v>
       </c>
       <c r="R100" t="n">
-        <v>7326141</v>
+        <v>7326072</v>
       </c>
       <c r="S100" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T100" t="inlineStr">
         <is>
@@ -11252,22 +11287,26 @@
       <c r="AT100" t="inlineStr"/>
       <c r="AW100" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX100" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
-        </is>
-      </c>
-      <c r="AY100" t="inlineStr"/>
+          <t>Lisa Olson</t>
+        </is>
+      </c>
+      <c r="AY100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>118678709</v>
+        <v>118506665</v>
       </c>
       <c r="B101" t="n">
-        <v>77416</v>
+        <v>91779</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -11276,38 +11315,45 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6487</v>
+        <v>4364</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
       <c r="P101" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>695099</v>
+        <v>694983</v>
       </c>
       <c r="R101" t="n">
-        <v>7326156</v>
+        <v>7326014</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -11334,12 +11380,12 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>2024-07-25</t>
+          <t>2024-06-05</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -11348,32 +11394,29 @@
       <c r="AE101" t="b">
         <v>0</v>
       </c>
+      <c r="AF101" t="inlineStr"/>
       <c r="AG101" t="b">
         <v>0</v>
       </c>
       <c r="AT101" t="inlineStr"/>
       <c r="AW101" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX101" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
-        </is>
-      </c>
-      <c r="AY101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AY101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>118680029</v>
+        <v>118679517</v>
       </c>
       <c r="B102" t="n">
-        <v>91779</v>
+        <v>91783</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -11382,25 +11425,25 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I102" t="inlineStr"/>
@@ -11417,10 +11460,10 @@
         </is>
       </c>
       <c r="Q102" t="n">
-        <v>695157</v>
+        <v>695068</v>
       </c>
       <c r="R102" t="n">
-        <v>7325779</v>
+        <v>7325835</v>
       </c>
       <c r="S102" t="n">
         <v>10</v>
@@ -11461,6 +11504,7 @@
       <c r="AE102" t="b">
         <v>0</v>
       </c>
+      <c r="AF102" t="inlineStr"/>
       <c r="AG102" t="b">
         <v>0</v>
       </c>
@@ -11483,10 +11527,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>118681639</v>
+        <v>118678712</v>
       </c>
       <c r="B103" t="n">
-        <v>90654</v>
+        <v>77868</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -11495,45 +11539,38 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>1503</v>
+        <v>6437</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="N103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>695299</v>
+        <v>695202</v>
       </c>
       <c r="R103" t="n">
-        <v>7325729</v>
+        <v>7325765</v>
       </c>
       <c r="S103" t="n">
         <v>10</v>
@@ -11574,19 +11611,18 @@
       <c r="AE103" t="b">
         <v>0</v>
       </c>
-      <c r="AF103" t="inlineStr"/>
       <c r="AG103" t="b">
         <v>0</v>
       </c>
       <c r="AT103" t="inlineStr"/>
       <c r="AW103" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX103" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AY103" t="inlineStr">
@@ -11597,10 +11633,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>118678794</v>
+        <v>118678570</v>
       </c>
       <c r="B104" t="n">
-        <v>56502</v>
+        <v>91773</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -11609,53 +11645,41 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>100138</v>
+        <v>4362</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
-        </is>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>äldre spillning</t>
-        </is>
-      </c>
-      <c r="N104" t="inlineStr"/>
+          <t>(Hornem.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>695080</v>
+        <v>695413</v>
       </c>
       <c r="R104" t="n">
-        <v>7325815</v>
+        <v>7325711</v>
       </c>
       <c r="S104" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T104" t="inlineStr">
         <is>
@@ -11699,26 +11723,22 @@
       <c r="AT104" t="inlineStr"/>
       <c r="AW104" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Petya Valcheva</t>
         </is>
       </c>
       <c r="AX104" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
-        </is>
-      </c>
-      <c r="AY104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Petya Valcheva</t>
+        </is>
+      </c>
+      <c r="AY104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>118678699</v>
+        <v>118682225</v>
       </c>
       <c r="B105" t="n">
-        <v>78221</v>
+        <v>91779</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -11727,38 +11747,45 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E105" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
       <c r="P105" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q105" t="n">
-        <v>695048</v>
+        <v>695215</v>
       </c>
       <c r="R105" t="n">
-        <v>7326248</v>
+        <v>7326167</v>
       </c>
       <c r="S105" t="n">
         <v>10</v>
@@ -11799,18 +11826,19 @@
       <c r="AE105" t="b">
         <v>0</v>
       </c>
+      <c r="AF105" t="inlineStr"/>
       <c r="AG105" t="b">
         <v>0</v>
       </c>
       <c r="AT105" t="inlineStr"/>
       <c r="AW105" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX105" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY105" t="inlineStr">
@@ -11821,10 +11849,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>118678554</v>
+        <v>118682412</v>
       </c>
       <c r="B106" t="n">
-        <v>78221</v>
+        <v>91779</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -11833,41 +11861,48 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>228912</v>
+        <v>4364</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
       <c r="P106" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>695261</v>
+        <v>695096</v>
       </c>
       <c r="R106" t="n">
-        <v>7325710</v>
+        <v>7326262</v>
       </c>
       <c r="S106" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T106" t="inlineStr">
         <is>
@@ -11905,28 +11940,33 @@
       <c r="AE106" t="b">
         <v>0</v>
       </c>
+      <c r="AF106" t="inlineStr"/>
       <c r="AG106" t="b">
         <v>0</v>
       </c>
       <c r="AT106" t="inlineStr"/>
       <c r="AW106" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX106" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
-        </is>
-      </c>
-      <c r="AY106" t="inlineStr"/>
+          <t>Patrik Nygren</t>
+        </is>
+      </c>
+      <c r="AY106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>118686343</v>
+        <v>118678561</v>
       </c>
       <c r="B107" t="n">
-        <v>78129</v>
+        <v>91779</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -11935,25 +11975,25 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E107" t="n">
-        <v>353</v>
+        <v>4364</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I107" t="inlineStr"/>
@@ -11963,13 +12003,13 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>695408</v>
+        <v>694999</v>
       </c>
       <c r="R107" t="n">
-        <v>7326005</v>
+        <v>7326161</v>
       </c>
       <c r="S107" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T107" t="inlineStr">
         <is>
@@ -12013,26 +12053,22 @@
       <c r="AT107" t="inlineStr"/>
       <c r="AW107" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Petya Valcheva</t>
         </is>
       </c>
       <c r="AX107" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
-        </is>
-      </c>
-      <c r="AY107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Petya Valcheva</t>
+        </is>
+      </c>
+      <c r="AY107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>118686285</v>
+        <v>118678572</v>
       </c>
       <c r="B108" t="n">
-        <v>93682</v>
+        <v>91773</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -12041,25 +12077,25 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>2412</v>
+        <v>4362</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Källmossa</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Philonotis fontana</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>(Hedw.) Brid.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I108" t="inlineStr"/>
@@ -12069,13 +12105,13 @@
         </is>
       </c>
       <c r="Q108" t="n">
-        <v>695405</v>
+        <v>695167</v>
       </c>
       <c r="R108" t="n">
-        <v>7326089</v>
+        <v>7326207</v>
       </c>
       <c r="S108" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T108" t="inlineStr">
         <is>
@@ -12119,26 +12155,22 @@
       <c r="AT108" t="inlineStr"/>
       <c r="AW108" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Petya Valcheva</t>
         </is>
       </c>
       <c r="AX108" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
-        </is>
-      </c>
-      <c r="AY108" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Petya Valcheva</t>
+        </is>
+      </c>
+      <c r="AY108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>118686345</v>
+        <v>118686297</v>
       </c>
       <c r="B109" t="n">
-        <v>91779</v>
+        <v>79102</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -12147,25 +12179,25 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>4364</v>
+        <v>6453</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I109" t="inlineStr"/>
@@ -12175,10 +12207,10 @@
         </is>
       </c>
       <c r="Q109" t="n">
-        <v>695422</v>
+        <v>695086</v>
       </c>
       <c r="R109" t="n">
-        <v>7325852</v>
+        <v>7326151</v>
       </c>
       <c r="S109" t="n">
         <v>10</v>
@@ -12241,10 +12273,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>118679517</v>
+        <v>118686327</v>
       </c>
       <c r="B110" t="n">
-        <v>91783</v>
+        <v>77421</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -12253,45 +12285,38 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>4365</v>
+        <v>228579</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Liten svartspik</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Chaenothecopsis nana</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="N110" t="inlineStr"/>
       <c r="P110" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q110" t="n">
-        <v>695068</v>
+        <v>695379</v>
       </c>
       <c r="R110" t="n">
-        <v>7325835</v>
+        <v>7326065</v>
       </c>
       <c r="S110" t="n">
         <v>10</v>
@@ -12332,19 +12357,18 @@
       <c r="AE110" t="b">
         <v>0</v>
       </c>
-      <c r="AF110" t="inlineStr"/>
       <c r="AG110" t="b">
         <v>0</v>
       </c>
       <c r="AT110" t="inlineStr"/>
       <c r="AW110" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX110" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY110" t="inlineStr">
@@ -12355,10 +12379,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>118678702</v>
+        <v>118686288</v>
       </c>
       <c r="B111" t="n">
-        <v>90654</v>
+        <v>74596</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -12367,25 +12391,25 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>1503</v>
+        <v>6440</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I111" t="inlineStr"/>
@@ -12395,10 +12419,10 @@
         </is>
       </c>
       <c r="Q111" t="n">
-        <v>695217</v>
+        <v>695403</v>
       </c>
       <c r="R111" t="n">
-        <v>7326134</v>
+        <v>7326110</v>
       </c>
       <c r="S111" t="n">
         <v>10</v>
@@ -12445,12 +12469,12 @@
       <c r="AT111" t="inlineStr"/>
       <c r="AW111" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX111" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY111" t="inlineStr">
@@ -12461,10 +12485,10 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>118682225</v>
+        <v>118678553</v>
       </c>
       <c r="B112" t="n">
-        <v>91779</v>
+        <v>91771</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -12473,48 +12497,41 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
       <c r="P112" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>695215</v>
+        <v>695221</v>
       </c>
       <c r="R112" t="n">
-        <v>7326167</v>
+        <v>7326126</v>
       </c>
       <c r="S112" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T112" t="inlineStr">
         <is>
@@ -12552,33 +12569,28 @@
       <c r="AE112" t="b">
         <v>0</v>
       </c>
-      <c r="AF112" t="inlineStr"/>
       <c r="AG112" t="b">
         <v>0</v>
       </c>
       <c r="AT112" t="inlineStr"/>
       <c r="AW112" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petya Valcheva</t>
         </is>
       </c>
       <c r="AX112" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
-        </is>
-      </c>
-      <c r="AY112" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Petya Valcheva</t>
+        </is>
+      </c>
+      <c r="AY112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>118678804</v>
+        <v>118678551</v>
       </c>
       <c r="B113" t="n">
-        <v>91773</v>
+        <v>91783</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -12587,25 +12599,25 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4362</v>
+        <v>4365</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Smalfotad taggsvamp</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum gracilipes</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(P.Karst) P.Karst</t>
         </is>
       </c>
       <c r="I113" t="inlineStr"/>
@@ -12615,13 +12627,13 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>695120</v>
+        <v>695163</v>
       </c>
       <c r="R113" t="n">
-        <v>7326306</v>
+        <v>7326139</v>
       </c>
       <c r="S113" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T113" t="inlineStr">
         <is>
@@ -12665,26 +12677,22 @@
       <c r="AT113" t="inlineStr"/>
       <c r="AW113" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Petya Valcheva</t>
         </is>
       </c>
       <c r="AX113" t="inlineStr">
         <is>
-          <t>Göran Ehn, Nicklas Gustavsson</t>
-        </is>
-      </c>
-      <c r="AY113" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Petya Valcheva</t>
+        </is>
+      </c>
+      <c r="AY113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>118678796</v>
+        <v>118686330</v>
       </c>
       <c r="B114" t="n">
-        <v>91783</v>
+        <v>97750</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -12693,25 +12701,25 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>4365</v>
+        <v>220093</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Smalfotad taggsvamp</t>
+          <t>Korallrot</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Hydnellum gracilipes</t>
+          <t>Corallorhiza trifida</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(P.Karst) P.Karst</t>
+          <t>Châtel.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -12721,10 +12729,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>695095</v>
+        <v>695407</v>
       </c>
       <c r="R114" t="n">
-        <v>7325816</v>
+        <v>7326094</v>
       </c>
       <c r="S114" t="n">
         <v>10</v>
@@ -12771,12 +12779,12 @@
       <c r="AT114" t="inlineStr"/>
       <c r="AW114" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX114" t="inlineStr">
         <is>
-          <t>Göran Ehn, Nicklas Gustavsson</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY114" t="inlineStr">
@@ -12787,10 +12795,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>118678793</v>
+        <v>118678700</v>
       </c>
       <c r="B115" t="n">
-        <v>57290</v>
+        <v>78221</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -12803,21 +12811,21 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>100109</v>
+        <v>228912</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -12827,10 +12835,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>695051</v>
+        <v>695266</v>
       </c>
       <c r="R115" t="n">
-        <v>7326375</v>
+        <v>7325752</v>
       </c>
       <c r="S115" t="n">
         <v>10</v>
@@ -12865,11 +12873,6 @@
           <t>2024-07-25</t>
         </is>
       </c>
-      <c r="AC115" t="inlineStr">
-        <is>
-          <t>Ringhack</t>
-        </is>
-      </c>
       <c r="AD115" t="b">
         <v>0</v>
       </c>
@@ -12887,7 +12890,7 @@
       </c>
       <c r="AX115" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AY115" t="inlineStr">
@@ -12898,10 +12901,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>118686303</v>
+        <v>118678716</v>
       </c>
       <c r="B116" t="n">
-        <v>97867</v>
+        <v>77868</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -12910,25 +12913,25 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>221952</v>
+        <v>6437</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Spindelblomster</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Neottia cordata</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(L.) Rich.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -12938,10 +12941,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>695383</v>
+        <v>695410</v>
       </c>
       <c r="R116" t="n">
-        <v>7326079</v>
+        <v>7325822</v>
       </c>
       <c r="S116" t="n">
         <v>10</v>
@@ -12988,12 +12991,12 @@
       <c r="AT116" t="inlineStr"/>
       <c r="AW116" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX116" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AY116" t="inlineStr">
@@ -13004,10 +13007,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>118679392</v>
+        <v>118678569</v>
       </c>
       <c r="B117" t="n">
-        <v>90654</v>
+        <v>91779</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -13016,48 +13019,41 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1503</v>
+        <v>4364</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>695058</v>
+        <v>695092</v>
       </c>
       <c r="R117" t="n">
-        <v>7325835</v>
+        <v>7326283</v>
       </c>
       <c r="S117" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T117" t="inlineStr">
         <is>
@@ -13095,33 +13091,28 @@
       <c r="AE117" t="b">
         <v>0</v>
       </c>
-      <c r="AF117" t="inlineStr"/>
       <c r="AG117" t="b">
         <v>0</v>
       </c>
       <c r="AT117" t="inlineStr"/>
       <c r="AW117" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Petya Valcheva</t>
         </is>
       </c>
       <c r="AX117" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
-        </is>
-      </c>
-      <c r="AY117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Petya Valcheva</t>
+        </is>
+      </c>
+      <c r="AY117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>118678797</v>
+        <v>118686295</v>
       </c>
       <c r="B118" t="n">
-        <v>91771</v>
+        <v>79102</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -13134,21 +13125,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>4361</v>
+        <v>6453</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -13158,10 +13149,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>695210</v>
+        <v>695186</v>
       </c>
       <c r="R118" t="n">
-        <v>7326182</v>
+        <v>7326127</v>
       </c>
       <c r="S118" t="n">
         <v>10</v>
@@ -13208,12 +13199,12 @@
       <c r="AT118" t="inlineStr"/>
       <c r="AW118" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX118" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY118" t="inlineStr">
@@ -13224,10 +13215,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>118686302</v>
+        <v>118686285</v>
       </c>
       <c r="B119" t="n">
-        <v>91765</v>
+        <v>93682</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -13236,25 +13227,25 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>3100</v>
+        <v>2412</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Källmossa</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Philonotis fontana</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Hedw.) Brid.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -13264,10 +13255,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>695384</v>
+        <v>695405</v>
       </c>
       <c r="R119" t="n">
-        <v>7326042</v>
+        <v>7326089</v>
       </c>
       <c r="S119" t="n">
         <v>10</v>
@@ -13330,10 +13321,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>118678563</v>
+        <v>118686354</v>
       </c>
       <c r="B120" t="n">
-        <v>91779</v>
+        <v>77868</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -13342,25 +13333,25 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>4364</v>
+        <v>6437</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -13370,13 +13361,13 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>695008</v>
+        <v>695325</v>
       </c>
       <c r="R120" t="n">
-        <v>7326041</v>
+        <v>7326205</v>
       </c>
       <c r="S120" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T120" t="inlineStr">
         <is>
@@ -13420,22 +13411,26 @@
       <c r="AT120" t="inlineStr"/>
       <c r="AW120" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX120" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
-        </is>
-      </c>
-      <c r="AY120" t="inlineStr"/>
+          <t>Petra Wikström</t>
+        </is>
+      </c>
+      <c r="AY120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>118686312</v>
+        <v>118686303</v>
       </c>
       <c r="B121" t="n">
-        <v>91791</v>
+        <v>97867</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -13448,21 +13443,21 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>4366</v>
+        <v>221952</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Spindelblomster</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Neottia cordata</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.) Rich.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -13472,10 +13467,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>695262</v>
+        <v>695383</v>
       </c>
       <c r="R121" t="n">
-        <v>7326088</v>
+        <v>7326079</v>
       </c>
       <c r="S121" t="n">
         <v>10</v>
@@ -13538,10 +13533,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>118686358</v>
+        <v>118678554</v>
       </c>
       <c r="B122" t="n">
-        <v>77868</v>
+        <v>78221</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -13554,21 +13549,21 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>6437</v>
+        <v>228912</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -13578,13 +13573,13 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>695375</v>
+        <v>695261</v>
       </c>
       <c r="R122" t="n">
-        <v>7325923</v>
+        <v>7325710</v>
       </c>
       <c r="S122" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T122" t="inlineStr">
         <is>
@@ -13628,26 +13623,22 @@
       <c r="AT122" t="inlineStr"/>
       <c r="AW122" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Petya Valcheva</t>
         </is>
       </c>
       <c r="AX122" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
-        </is>
-      </c>
-      <c r="AY122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Petya Valcheva</t>
+        </is>
+      </c>
+      <c r="AY122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>118686291</v>
+        <v>118681945</v>
       </c>
       <c r="B123" t="n">
-        <v>79102</v>
+        <v>91779</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -13656,38 +13647,45 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>6453</v>
+        <v>4364</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
       <c r="P123" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>695484</v>
+        <v>695407</v>
       </c>
       <c r="R123" t="n">
-        <v>7325908</v>
+        <v>7325872</v>
       </c>
       <c r="S123" t="n">
         <v>10</v>
@@ -13728,18 +13726,19 @@
       <c r="AE123" t="b">
         <v>0</v>
       </c>
+      <c r="AF123" t="inlineStr"/>
       <c r="AG123" t="b">
         <v>0</v>
       </c>
       <c r="AT123" t="inlineStr"/>
       <c r="AW123" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX123" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY123" t="inlineStr">
@@ -13750,10 +13749,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>118506678</v>
+        <v>118678701</v>
       </c>
       <c r="B124" t="n">
-        <v>90749</v>
+        <v>77416</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -13762,45 +13761,38 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>65</v>
+        <v>6487</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
       <c r="P124" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>695114</v>
+        <v>695079</v>
       </c>
       <c r="R124" t="n">
-        <v>7326371</v>
+        <v>7326308</v>
       </c>
       <c r="S124" t="n">
         <v>10</v>
@@ -13827,12 +13819,12 @@
       </c>
       <c r="Y124" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="AA124" t="inlineStr">
         <is>
-          <t>2024-06-05</t>
+          <t>2024-07-25</t>
         </is>
       </c>
       <c r="AD124" t="b">
@@ -13841,29 +13833,32 @@
       <c r="AE124" t="b">
         <v>0</v>
       </c>
-      <c r="AF124" t="inlineStr"/>
       <c r="AG124" t="b">
         <v>0</v>
       </c>
       <c r="AT124" t="inlineStr"/>
       <c r="AW124" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX124" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
-        </is>
-      </c>
-      <c r="AY124" t="inlineStr"/>
+          <t>Lisa Olson</t>
+        </is>
+      </c>
+      <c r="AY124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>118678698</v>
+        <v>118686292</v>
       </c>
       <c r="B125" t="n">
-        <v>78221</v>
+        <v>79102</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -13876,21 +13871,21 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -13900,10 +13895,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>695296</v>
+        <v>695330</v>
       </c>
       <c r="R125" t="n">
-        <v>7326118</v>
+        <v>7326037</v>
       </c>
       <c r="S125" t="n">
         <v>10</v>
@@ -13950,12 +13945,12 @@
       <c r="AT125" t="inlineStr"/>
       <c r="AW125" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX125" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY125" t="inlineStr">
@@ -13966,10 +13961,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>118686318</v>
+        <v>118686312</v>
       </c>
       <c r="B126" t="n">
-        <v>96807</v>
+        <v>91791</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -13982,21 +13977,21 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>221941</v>
+        <v>4366</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -14006,10 +14001,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>695337</v>
+        <v>695262</v>
       </c>
       <c r="R126" t="n">
-        <v>7326022</v>
+        <v>7326088</v>
       </c>
       <c r="S126" t="n">
         <v>10</v>
@@ -14072,10 +14067,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>118678559</v>
+        <v>118686343</v>
       </c>
       <c r="B127" t="n">
-        <v>90749</v>
+        <v>78129</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -14084,25 +14079,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>65</v>
+        <v>353</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -14112,13 +14107,13 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>695286</v>
+        <v>695408</v>
       </c>
       <c r="R127" t="n">
-        <v>7326050</v>
+        <v>7326005</v>
       </c>
       <c r="S127" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T127" t="inlineStr">
         <is>
@@ -14162,22 +14157,26 @@
       <c r="AT127" t="inlineStr"/>
       <c r="AW127" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
-        </is>
-      </c>
-      <c r="AY127" t="inlineStr"/>
+          <t>Petra Wikström</t>
+        </is>
+      </c>
+      <c r="AY127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>118678800</v>
+        <v>118678697</v>
       </c>
       <c r="B128" t="n">
-        <v>90749</v>
+        <v>78221</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -14186,25 +14185,25 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>65</v>
+        <v>228912</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I128" t="inlineStr"/>
@@ -14214,10 +14213,10 @@
         </is>
       </c>
       <c r="Q128" t="n">
-        <v>695241</v>
+        <v>695389</v>
       </c>
       <c r="R128" t="n">
-        <v>7325733</v>
+        <v>7325934</v>
       </c>
       <c r="S128" t="n">
         <v>10</v>
@@ -14269,7 +14268,7 @@
       </c>
       <c r="AX128" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AY128" t="inlineStr">
@@ -14280,10 +14279,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>118678704</v>
+        <v>118678559</v>
       </c>
       <c r="B129" t="n">
-        <v>78129</v>
+        <v>90749</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -14292,25 +14291,25 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E129" t="n">
-        <v>353</v>
+        <v>65</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I129" t="inlineStr"/>
@@ -14320,13 +14319,13 @@
         </is>
       </c>
       <c r="Q129" t="n">
-        <v>695075</v>
+        <v>695286</v>
       </c>
       <c r="R129" t="n">
-        <v>7326304</v>
+        <v>7326050</v>
       </c>
       <c r="S129" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="T129" t="inlineStr">
         <is>
@@ -14370,26 +14369,22 @@
       <c r="AT129" t="inlineStr"/>
       <c r="AW129" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Petya Valcheva</t>
         </is>
       </c>
       <c r="AX129" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
-        </is>
-      </c>
-      <c r="AY129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
-        </is>
-      </c>
+          <t>Petya Valcheva</t>
+        </is>
+      </c>
+      <c r="AY129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>118678550</v>
+        <v>118686347</v>
       </c>
       <c r="B130" t="n">
-        <v>91765</v>
+        <v>91779</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -14398,25 +14393,25 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E130" t="n">
-        <v>3100</v>
+        <v>4364</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Talltaggsvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Bankera fuligineoalba</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>(Schmidt : Fr.) Pouzar</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -14426,13 +14421,13 @@
         </is>
       </c>
       <c r="Q130" t="n">
-        <v>695167</v>
+        <v>695375</v>
       </c>
       <c r="R130" t="n">
-        <v>7326043</v>
+        <v>7325923</v>
       </c>
       <c r="S130" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="T130" t="inlineStr">
         <is>
@@ -14476,22 +14471,26 @@
       <c r="AT130" t="inlineStr"/>
       <c r="AW130" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX130" t="inlineStr">
         <is>
-          <t>Petya Valcheva</t>
-        </is>
-      </c>
-      <c r="AY130" t="inlineStr"/>
+          <t>Petra Wikström</t>
+        </is>
+      </c>
+      <c r="AY130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forskningsresan i Naturvårdens Utmarker 2024 Norrbottens län </t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>118686348</v>
+        <v>118679571</v>
       </c>
       <c r="B131" t="n">
-        <v>91779</v>
+        <v>91771</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -14500,38 +14499,45 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E131" t="n">
-        <v>4364</v>
+        <v>4361</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>695098</v>
+        <v>695061</v>
       </c>
       <c r="R131" t="n">
-        <v>7326160</v>
+        <v>7325839</v>
       </c>
       <c r="S131" t="n">
         <v>10</v>
@@ -14578,12 +14584,12 @@
       <c r="AT131" t="inlineStr"/>
       <c r="AW131" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AX131" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Patrik Nygren</t>
         </is>
       </c>
       <c r="AY131" t="inlineStr">
@@ -14594,7 +14600,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>118678706</v>
+        <v>118686350</v>
       </c>
       <c r="B132" t="n">
         <v>91779</v>
@@ -14634,10 +14640,10 @@
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>695452</v>
+        <v>695135</v>
       </c>
       <c r="R132" t="n">
-        <v>7325689</v>
+        <v>7326180</v>
       </c>
       <c r="S132" t="n">
         <v>10</v>
@@ -14678,18 +14684,19 @@
       <c r="AE132" t="b">
         <v>0</v>
       </c>
+      <c r="AF132" t="inlineStr"/>
       <c r="AG132" t="b">
         <v>0</v>
       </c>
       <c r="AT132" t="inlineStr"/>
       <c r="AW132" t="inlineStr">
         <is>
-          <t>Göran Ehn</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AX132" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Petra Wikström</t>
         </is>
       </c>
       <c r="AY132" t="inlineStr">
@@ -14700,10 +14707,10 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>118680238</v>
+        <v>118678706</v>
       </c>
       <c r="B133" t="n">
-        <v>90469</v>
+        <v>91779</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -14716,41 +14723,34 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>5447</v>
+        <v>4364</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="N133" t="inlineStr"/>
       <c r="P133" t="inlineStr">
         <is>
           <t>Björnideforsen, Pi lm</t>
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>695211</v>
+        <v>695452</v>
       </c>
       <c r="R133" t="n">
-        <v>7325729</v>
+        <v>7325689</v>
       </c>
       <c r="S133" t="n">
         <v>10</v>
@@ -14797,12 +14797,12 @@
       <c r="AT133" t="inlineStr"/>
       <c r="AW133" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX133" t="inlineStr">
         <is>
-          <t>Patrik Nygren</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AY133" t="inlineStr">
@@ -14813,10 +14813,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>118678710</v>
+        <v>118678797</v>
       </c>
       <c r="B134" t="n">
-        <v>77416</v>
+        <v>91771</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -14829,21 +14829,21 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>6487</v>
+        <v>4361</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I134" t="inlineStr"/>
@@ -14853,10 +14853,10 @@
         </is>
       </c>
       <c r="Q134" t="n">
-        <v>695269</v>
+        <v>695210</v>
       </c>
       <c r="R134" t="n">
-        <v>7325748</v>
+        <v>7326182</v>
       </c>
       <c r="S134" t="n">
         <v>10</v>
@@ -14908,7 +14908,7 @@
       </c>
       <c r="AX134" t="inlineStr">
         <is>
-          <t>Lisa Olson</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AY134" t="inlineStr">
@@ -14919,10 +14919,10 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>118686292</v>
+        <v>118678715</v>
       </c>
       <c r="B135" t="n">
-        <v>79102</v>
+        <v>77868</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -14935,21 +14935,21 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>6453</v>
+        <v>6437</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I135" t="inlineStr"/>
@@ -14959,10 +14959,10 @@
         </is>
       </c>
       <c r="Q135" t="n">
-        <v>695330</v>
+        <v>695076</v>
       </c>
       <c r="R135" t="n">
-        <v>7326037</v>
+        <v>7326305</v>
       </c>
       <c r="S135" t="n">
         <v>10</v>
@@ -15009,12 +15009,12 @@
       <c r="AT135" t="inlineStr"/>
       <c r="AW135" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Göran Ehn</t>
         </is>
       </c>
       <c r="AX135" t="inlineStr">
         <is>
-          <t>Petra Wikström</t>
+          <t>Lisa Olson</t>
         </is>
       </c>
       <c r="AY135" t="inlineStr">
